--- a/BipartiteKnapsackProblem/workbook.xlsx
+++ b/BipartiteKnapsackProblem/workbook.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Codice</t>
   </si>
@@ -29,24 +29,12 @@
     <t>FROM BEL PAESE 2,5KGX2</t>
   </si>
   <si>
-    <t>14767</t>
-  </si>
-  <si>
-    <t>RICOTTA GALB 250GX8</t>
-  </si>
-  <si>
     <t>14776</t>
   </si>
   <si>
     <t>GRANA PADANO GALB 100GX10</t>
   </si>
   <si>
-    <t>15210</t>
-  </si>
-  <si>
-    <t>GORG GALB CREMOSO 150GX8</t>
-  </si>
-  <si>
     <t>92519</t>
   </si>
   <si>
@@ -59,12 +47,6 @@
     <t>MOZZA CFR 125GX20</t>
   </si>
   <si>
-    <t>99477</t>
-  </si>
-  <si>
-    <t>MOZZA GALB 125GX12</t>
-  </si>
-  <si>
     <t>131460</t>
   </si>
   <si>
@@ -77,12 +59,6 @@
     <t>MOZZA GALB 1KGX12</t>
   </si>
   <si>
-    <t>137260</t>
-  </si>
-  <si>
-    <t>MOZZA GALB JULIENNE 1,5KGX4</t>
-  </si>
-  <si>
     <t>156469</t>
   </si>
   <si>
@@ -113,12 +89,6 @@
     <t>MASCARPONE GALB 250GX8</t>
   </si>
   <si>
-    <t>192731</t>
-  </si>
-  <si>
-    <t>MOZZA GALB MINI BUF DOY 150GX6</t>
-  </si>
-  <si>
     <t>193060</t>
   </si>
   <si>
@@ -135,12 +105,6 @@
   </si>
   <si>
     <t>FILANTE GALB JULIENNE 1,5KGX4</t>
-  </si>
-  <si>
-    <t>395060</t>
-  </si>
-  <si>
-    <t>PAESANO IT GALB 250GX12</t>
   </si>
 </sst>
 </file>
@@ -185,7 +149,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -221,7 +185,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>25.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -232,7 +196,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>1.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="5">
@@ -254,7 +218,7 @@
         <v>12</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>18.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -265,7 +229,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -276,7 +240,7 @@
         <v>16</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>21.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="9">
@@ -287,7 +251,7 @@
         <v>18</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -298,7 +262,7 @@
         <v>20</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>1.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="11">
@@ -309,7 +273,7 @@
         <v>22</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
@@ -320,7 +284,7 @@
         <v>24</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="13">
@@ -342,7 +306,7 @@
         <v>28</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
@@ -353,73 +317,7 @@
         <v>30</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="C16" t="n" s="0">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="C17" t="n" s="0">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="C18" t="n" s="0">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="B19" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C19" t="n" s="0">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="B20" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="C20" t="n" s="0">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="B21" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="C21" t="n" s="0">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
